--- a/municipal/ENG/Culture/Imereti/Bagdati.xlsx
+++ b/municipal/ENG/Culture/Imereti/Bagdati.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\კულტურა\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Culture\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
     <t>number of theatres</t>
   </si>
   <si>
-    <t>Number of Museums and Theatres in Bagdati</t>
+    <t>Number of Museums and Theatres in Bagdati municipality</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -475,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,9 +644,6 @@
       <c r="D6" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
